--- a/final results/windows10 final results.xlsx
+++ b/final results/windows10 final results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37137355-D1D1-494E-B781-21A7864F8F5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5729B58C-36D0-4E27-B83A-D5DB7CDA9399}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{581DAB66-4A87-4E86-82A4-274A5B9AFBE6}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>program</t>
   </si>
@@ -124,6 +124,9 @@
   <si>
     <t>total_time</t>
   </si>
+  <si>
+    <t>program_time</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +168,10 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2792,6 +2798,750 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Grafico per Silvia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>c++ time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio2!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1211524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4259844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22189588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37518636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46198804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60675148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98271828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio2!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>470233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1633130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>798189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>524.3963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-7A87-40A3-8283-C7CCA05C1A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>matlab time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio2!$G$9:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1743552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7208968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30905032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52329064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio2!$M$9:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>524.3963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6414.8947000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12885.950800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22381.745800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-7A87-40A3-8283-C7CCA05C1A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>python time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio2!$G$13:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1211524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4259844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22222996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37548540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46198804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60675148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98271828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio2!$M$13:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>125.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2078.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82921.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250281.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37281.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>517640.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>554734.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-7A87-40A3-8283-C7CCA05C1A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>r time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio2!$G$20:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1212680</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4261000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22190744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37519792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46199960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60676304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98272984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio2!$M$20:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>182.52587318420444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16131.175994873047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19048.884153366049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55604.39991950996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>676598.10090064979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1386629.3489933026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8288398.8440036774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-7A87-40A3-8283-C7CCA05C1A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1340148783"/>
+        <c:axId val="1342416847"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>name</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-7A87-40A3-8283-C7CCA05C1A48}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1340148783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342416847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1342416847"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340148783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -2940,6 +3690,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4933,6 +5723,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4998,8 +6304,8 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5098,13 +6404,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854C4C6A-08D4-4393-A821-98F9D59859B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatiEsterni_1" connectionId="1" xr16:uid="{6C29D625-9F01-48B5-AA76-56EBEFE3CD67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="13" unboundColumnsRight="1">
-    <queryTableFields count="12">
+  <queryTableRefresh nextId="14" unboundColumnsRight="2">
+    <queryTableFields count="13">
       <queryTableField id="1" name="program" tableColumnId="1"/>
       <queryTableField id="2" name="name" tableColumnId="2"/>
       <queryTableField id="3" name="import" tableColumnId="3"/>
@@ -5117,20 +6459,21 @@
       <queryTableField id="10" name="sol_time" tableColumnId="10"/>
       <queryTableField id="11" name="err" tableColumnId="11"/>
       <queryTableField id="12" dataBound="0" tableColumnId="12"/>
+      <queryTableField id="13" dataBound="0" tableColumnId="13"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBE08BD7-DE23-4B91-AF9F-1C5F57459F64}" name="win10_Results_2020_05_22" displayName="win10_Results_2020_05_22" ref="A1:L26" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L26" xr:uid="{60394225-A579-4CB6-9119-3144DA818A41}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBE08BD7-DE23-4B91-AF9F-1C5F57459F64}" name="win10_Results_2020_05_22" displayName="win10_Results_2020_05_22" ref="A1:M26" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:M26" xr:uid="{60394225-A579-4CB6-9119-3144DA818A41}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
     <sortCondition ref="A1:A26"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{4ED7D87F-909A-472F-B6B9-79318B4821E8}" uniqueName="1" name="program" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{531E17CB-5580-45D8-895F-A8125800C8AA}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="1"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{4ED7D87F-909A-472F-B6B9-79318B4821E8}" uniqueName="1" name="program" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{531E17CB-5580-45D8-895F-A8125800C8AA}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{13D06915-5D95-4E56-9FC4-37548D59227F}" uniqueName="3" name="import" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{35AEAAFF-6E85-4231-BEB3-7BE19B74F742}" uniqueName="4" name="rows" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{3422F10E-5EED-400C-9B9A-B931B0B2BDCF}" uniqueName="5" name="cols" queryTableFieldId="5"/>
@@ -5140,8 +6483,11 @@
     <tableColumn id="9" xr3:uid="{82E89501-3E08-48C4-99C0-087EEEFDF874}" uniqueName="9" name="chol_size" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{9A115BDA-A85A-4142-9838-5CA98F19EF4E}" uniqueName="10" name="sol_time" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{2BD6B5E7-DAF8-4A4E-9137-18930CE724B6}" uniqueName="11" name="err" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{49A419DA-A0C4-4041-A7D8-8A5783E9E5EB}" uniqueName="12" name="total_time" queryTableFieldId="12" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{49A419DA-A0C4-4041-A7D8-8A5783E9E5EB}" uniqueName="12" name="total_time" queryTableFieldId="12" dataDxfId="1">
       <calculatedColumnFormula>SUM(H2,J2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{DE35251F-8278-47E7-86DC-B443AE0ABB10}" uniqueName="13" name="program_time" queryTableFieldId="13" dataDxfId="0">
+      <calculatedColumnFormula>SUM(L2,C2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5445,10 +6791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CC582F-7353-43A0-9886-4AD480DFEEDD}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5464,9 +6810,10 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5503,8 +6850,11 @@
       <c r="L1" t="s">
         <v>22</v>
       </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -5542,8 +6892,12 @@
         <f t="shared" ref="L2:L26" si="0">SUM(H2,J2)</f>
         <v>171</v>
       </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M26" si="1">SUM(L2,C2)</f>
+        <v>327</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -5581,8 +6935,12 @@
         <f t="shared" si="0"/>
         <v>3467</v>
       </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>4076</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5620,8 +6978,12 @@
         <f t="shared" si="0"/>
         <v>118484</v>
       </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>121045</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -5659,8 +7021,12 @@
         <f t="shared" si="0"/>
         <v>465858</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>470233</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5698,8 +7064,12 @@
         <f t="shared" si="0"/>
         <v>71546</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>77952</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -5737,8 +7107,12 @@
         <f t="shared" si="0"/>
         <v>1626702</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>1633130</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -5776,8 +7150,12 @@
         <f t="shared" si="0"/>
         <v>786299</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>798189</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -5815,8 +7193,12 @@
         <f t="shared" si="0"/>
         <v>272.11360000000002</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>524.3963</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -5854,8 +7236,12 @@
         <f t="shared" si="0"/>
         <v>5471.7317000000003</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>6414.8947000000007</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -5893,8 +7279,12 @@
         <f t="shared" si="0"/>
         <v>8588.9904000000006</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>12885.950800000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -5932,8 +7322,12 @@
         <f t="shared" si="0"/>
         <v>15147.8421</v>
       </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>22381.745800000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5971,8 +7365,12 @@
         <f t="shared" si="0"/>
         <v>31.35</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>125.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -6010,8 +7408,12 @@
         <f t="shared" si="0"/>
         <v>1656.25</v>
       </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>2078.125</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -6049,8 +7451,12 @@
         <f t="shared" si="0"/>
         <v>81171.875</v>
       </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>82921.875</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -6088,8 +7494,12 @@
         <f t="shared" si="0"/>
         <v>247296.875</v>
       </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>250281.25</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -6127,8 +7537,12 @@
         <f t="shared" si="0"/>
         <v>32718.75</v>
       </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>37281.25</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -6166,8 +7580,12 @@
         <f t="shared" si="0"/>
         <v>512359.375</v>
       </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>517640.625</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -6205,8 +7623,12 @@
         <f t="shared" si="0"/>
         <v>546312.5</v>
       </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>554734.375</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -6244,8 +7666,12 @@
         <f t="shared" si="0"/>
         <v>30.00688552856446</v>
       </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>182.52587318420444</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -6283,8 +7709,12 @@
         <f t="shared" si="0"/>
         <v>969.74086761474632</v>
       </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>16131.175994873047</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -6322,8 +7752,12 @@
         <f t="shared" si="0"/>
         <v>6974.3361473083496</v>
       </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>19048.884153366049</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -6361,8 +7795,12 @@
         <f t="shared" si="0"/>
         <v>19376.960992813158</v>
       </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>55604.39991950996</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -6400,8 +7838,12 @@
         <f t="shared" si="0"/>
         <v>7349.4729995727539</v>
       </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>676598.10090064979</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -6439,8 +7881,12 @@
         <f t="shared" si="0"/>
         <v>95044.6009635925</v>
       </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>1386629.3489933026</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -6477,6 +7923,10 @@
       <c r="L26">
         <f t="shared" si="0"/>
         <v>90898.010015487642</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>8288398.8440036774</v>
       </c>
     </row>
   </sheetData>

--- a/final results/windows10 final results.xlsx
+++ b/final results/windows10 final results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5729B58C-36D0-4E27-B83A-D5DB7CDA9399}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3B4C1-DDFB-4C7E-AFDF-27D1FB91BD06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{581DAB66-4A87-4E86-82A4-274A5B9AFBE6}"/>
   </bookViews>
@@ -2632,7 +2632,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2833,7 +2833,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Grafico per Silvia</a:t>
+              <a:t>Grafico velocità - Windows</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2870,8 +2870,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2880,106 +2880,10 @@
             <c:v>c++ time</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Foglio2!$G$2:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1211524</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4259844</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22189588</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37518636</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46198804</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60675148</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>98271828</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio2!$M$2:$M$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4076</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121045</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>470233</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77952</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1633130</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>798189</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>524.3963</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-7A87-40A3-8283-C7CCA05C1A48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>matlab time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2999,159 +2903,83 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Foglio2!$G$9:$G$12</c:f>
+              <c:f>Foglio2!$M$2:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1743552</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7208968</c:v>
+                  <c:v>4076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30905032</c:v>
+                  <c:v>121045</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52329064</c:v>
+                  <c:v>470233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1633130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>798189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio2!$M$9:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>524.3963</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6414.8947000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12885.950800000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22381.745800000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-7A87-40A3-8283-C7CCA05C1A48}"/>
+              <c16:uniqueId val="{0000000D-7A87-40A3-8283-C7CCA05C1A48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>python time</c:v>
+            <c:v>matlab time</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Foglio2!$G$13:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1211524</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4259844</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22222996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37548540</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46198804</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60675148</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>98271828</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio2!$M$13:$M$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>125.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2078.125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>82921.875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250281.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37281.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>517640.625</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>554734.375</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-7A87-40A3-8283-C7CCA05C1A48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>r time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3171,37 +2999,225 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Foglio2!$G$20:$G$26</c:f>
+              <c:f>Foglio2!$M$9:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>524.3963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6414.8947000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12885.950800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22381.745800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-7A87-40A3-8283-C7CCA05C1A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>python time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$M$13:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1212680</c:v>
+                  <c:v>125.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4261000</c:v>
+                  <c:v>2078.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22190744</c:v>
+                  <c:v>82921.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37519792</c:v>
+                  <c:v>250281.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46199960</c:v>
+                  <c:v>37281.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60676304</c:v>
+                  <c:v>517640.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98272984</c:v>
+                  <c:v>554734.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-7A87-40A3-8283-C7CCA05C1A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>r time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Foglio2!$M$20:$M$26</c:f>
               <c:numCache>
@@ -3230,7 +3246,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3246,11 +3262,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1340148783"/>
         <c:axId val="1342416847"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
@@ -3258,8 +3276,12 @@
                   <c:v>name</c:v>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
                     <a:round/>
                   </a:ln>
                   <a:effectLst/>
@@ -3269,17 +3291,21 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent5"/>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent5"/>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:xVal>
+                <c:cat>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -3313,16 +3339,43 @@
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numLit>
-                    <c:formatCode>General</c:formatCode>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>1</c:v>
-                    </c:pt>
-                  </c:numLit>
-                </c:yVal>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3330,45 +3383,25 @@
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredScatterSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="1340148783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3394,8 +3427,11 @@
         </c:txPr>
         <c:crossAx val="1342416847"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1342416847"/>
         <c:scaling>
@@ -3424,14 +3460,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3457,7 +3487,7 @@
         </c:txPr>
         <c:crossAx val="1340148783"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3529,7 +3559,3135 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr u="none"/>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Memoria occupata - Windows</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>chol_size c++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2774968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27857172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>406911040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>904888848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435446512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2671760416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2039944908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-665F-4D96-8B65-7451EAC51F22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>chol_size Matlab</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$9:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4186000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>368859400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1268173672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2498198312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-665F-4D96-8B65-7451EAC51F22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>chol_size python</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$13:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3445756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39794652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>467774008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>921304536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>505652608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2304463756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2556914712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-665F-4D96-8B65-7451EAC51F22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>chol_size r</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2129256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27083240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272271128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>531015000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335653656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1639027824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1754322224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-665F-4D96-8B65-7451EAC51F22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="255338592"/>
+        <c:axId val="258950496"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>name</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$G$2:$G$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1211524</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4259844</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>22189588</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>37518636</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>46198804</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60675148</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>98271828</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-665F-4D96-8B65-7451EAC51F22}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="255338592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258950496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258950496"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255338592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Tempo import - Windows</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>import time c++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11890</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFBA-4893-884F-3A8759D48AC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>import time matlab</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>252.28270000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>943.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4296.9603999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7233.9036999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFBA-4893-884F-3A8759D48AC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>import time python</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$C$13:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>421.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2984.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4562.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5281.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8421.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FFBA-4893-884F-3A8759D48AC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>import time r</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$C$20:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>152.51898765563999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15161.435127258301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12074.548006057699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36227.438926696799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>669248.62790107704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1291584.74802971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8197500.8339881897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FFBA-4893-884F-3A8759D48AC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="183630320"/>
+        <c:axId val="186732928"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>name</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-FFBA-4893-884F-3A8759D48AC6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="183630320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186732928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186732928"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183630320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Chol</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> - Windows</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>chol c++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2774968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27857172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>406911040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>904888848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435446512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2671760416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2039944908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0176-418F-A6AF-5BBC1EDB8619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>chol matlab</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$9:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4186000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>368859400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1268173672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2498198312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0176-418F-A6AF-5BBC1EDB8619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>chol python</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$13:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3445756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39794652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>467774008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>921304536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>505652608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2304463756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2556914712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0176-418F-A6AF-5BBC1EDB8619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>chol r </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2129256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27083240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272271128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>531015000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335653656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1639027824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1754322224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0176-418F-A6AF-5BBC1EDB8619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="346742368"/>
+        <c:axId val="1071090047"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>name </c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-0176-418F-A6AF-5BBC1EDB8619}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="346742368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1071090047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1071090047"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346742368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Err - Windows</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>err c++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.9530000000000003E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7971300000000002E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8825099999999998E-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3119199999999996E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.35935E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6493300000000004E-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5431099999999993E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7057-4CD2-A163-6D61A20DDD26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>err matlab</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$K$9:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.5530676175293696E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2036731129880599E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3847712940277298E-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7556406837391204E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7057-4CD2-A163-6D61A20DDD26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>err python</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$K$14:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.3236586965543559E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0231649104184821E-13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8706089987178975E-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5191634474851015E-13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5154492128590896E-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8515524773529713E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7057-4CD2-A163-6D61A20DDD26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>err r</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio2!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ex15.mtx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shallow_water1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cfd1.mtx</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cfd2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>parabolic_fem.mtx</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>apache2.mtx</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G3_circuit.mtx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio2!$K$20:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.2985734767509496E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7905845826963299E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3026412782843E-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.27750318052995E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3078895379913298E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7218014336550301E-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2908723645494E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7057-4CD2-A163-6D61A20DDD26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="183634720"/>
+        <c:axId val="258912640"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>name</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>ex15.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>shallow_water1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>cfd1.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>cfd2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>parabolic_fem.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>apache2.mtx</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>G3_circuit.mtx</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio2!$B$2:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-7057-4CD2-A163-6D61A20DDD26}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="183634720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258912640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258912640"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000004E-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183634720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="sng"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -3691,12 +6849,157 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -5743,7 +9046,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5770,8 +9073,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5872,7 +9175,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5904,10 +9207,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5947,23 +9250,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6068,8 +9370,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6201,24 +9503,404 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6228,17 +9910,1637 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6376,8 +11678,8 @@
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -6407,15 +11709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6435,6 +11737,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02530A49-6CEA-4D9E-BD2F-B622BB070E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A719880-47FF-445D-8BE5-6C78D1F415FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597F35E5-9A59-46CE-8BBC-AA066CB2C162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A864129-E60D-4029-BC90-E790BDFC201F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6793,8 +12239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CC582F-7353-43A0-9886-4AD480DFEEDD}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/final results/windows10 final results.xlsx
+++ b/final results/windows10 final results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3B4C1-DDFB-4C7E-AFDF-27D1FB91BD06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2BAF77-CEE3-4868-BD14-82BF5A6493AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{581DAB66-4A87-4E86-82A4-274A5B9AFBE6}"/>
   </bookViews>
@@ -956,7 +956,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1170,6 +1182,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="696070255"/>
         <c:axId val="560842191"/>
@@ -1194,7 +1207,23 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="none"/>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
                 </c:marker>
                 <c:cat>
                   <c:strRef>
@@ -2832,8 +2861,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Tempo esecuzione totale </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Grafico velocità - Windows</a:t>
+              <a:t>- Windows</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3400,8 +3435,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5943,7 +5979,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5956,7 +5992,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
+              <a:rPr lang="it-IT" u="none"/>
               <a:t>Err - Windows</a:t>
             </a:r>
           </a:p>
@@ -5975,7 +6011,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6537,7 +6573,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6598,7 +6634,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6640,7 +6676,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -12239,8 +12275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CC582F-7353-43A0-9886-4AD480DFEEDD}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="W66" sqref="W66"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/final results/windows10 final results.xlsx
+++ b/final results/windows10 final results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2BAF77-CEE3-4868-BD14-82BF5A6493AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43CF830-7C27-47A4-9902-4E6251BBA33B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{581DAB66-4A87-4E86-82A4-274A5B9AFBE6}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>program</t>
   </si>
@@ -127,6 +127,9 @@
   <si>
     <t>program_time</t>
   </si>
+  <si>
+    <t>mem</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +171,10 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3687,7 +3693,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>chol_size c++</c:v>
+            <c:v>size c++</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3744,30 +3750,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$I$2:$I$8</c:f>
+              <c:f>Foglio2!$N$2:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2774968</c:v>
+                  <c:v>3986492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27857172</c:v>
+                  <c:v>32117016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>406911040</c:v>
+                  <c:v>429100628</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>904888848</c:v>
+                  <c:v>942407484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>435446512</c:v>
+                  <c:v>481645316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2671760416</c:v>
+                  <c:v>2732435564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2039944908</c:v>
+                  <c:v>2138216736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3783,7 +3789,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>chol_size Matlab</c:v>
+            <c:v>size matlab</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3840,21 +3846,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$I$9:$I$12</c:f>
+              <c:f>Foglio2!$N$9:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4186000</c:v>
+                  <c:v>5929552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>368859400</c:v>
+                  <c:v>376068368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1268173672</c:v>
+                  <c:v>1299078704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2498198312</c:v>
+                  <c:v>2550527376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3870,7 +3876,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>chol_size python</c:v>
+            <c:v>size python</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3927,30 +3933,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$I$13:$I$19</c:f>
+              <c:f>Foglio2!$N$13:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3445756</c:v>
+                  <c:v>4657280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39794652</c:v>
+                  <c:v>44054496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>467774008</c:v>
+                  <c:v>489997004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>921304536</c:v>
+                  <c:v>958853076</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>505652608</c:v>
+                  <c:v>551851412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2304463756</c:v>
+                  <c:v>2365138904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2556914712</c:v>
+                  <c:v>2655186540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3966,7 +3972,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>chol_size r</c:v>
+            <c:v>size r</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4029,30 +4035,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$I$20:$I$26</c:f>
+              <c:f>Foglio2!$N$20:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2129256</c:v>
+                  <c:v>3341936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27083240</c:v>
+                  <c:v>31344240</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>272271128</c:v>
+                  <c:v>294461872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>531015000</c:v>
+                  <c:v>568534792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>335653656</c:v>
+                  <c:v>381853616</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1639027824</c:v>
+                  <c:v>1699704128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1754322224</c:v>
+                  <c:v>1852595208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11927,8 +11933,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatiEsterni_1" connectionId="1" xr16:uid="{6C29D625-9F01-48B5-AA76-56EBEFE3CD67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="14" unboundColumnsRight="2">
-    <queryTableFields count="13">
+  <queryTableRefresh nextId="15" unboundColumnsRight="3">
+    <queryTableFields count="14">
       <queryTableField id="1" name="program" tableColumnId="1"/>
       <queryTableField id="2" name="name" tableColumnId="2"/>
       <queryTableField id="3" name="import" tableColumnId="3"/>
@@ -11942,20 +11948,21 @@
       <queryTableField id="11" name="err" tableColumnId="11"/>
       <queryTableField id="12" dataBound="0" tableColumnId="12"/>
       <queryTableField id="13" dataBound="0" tableColumnId="13"/>
+      <queryTableField id="14" dataBound="0" tableColumnId="14"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBE08BD7-DE23-4B91-AF9F-1C5F57459F64}" name="win10_Results_2020_05_22" displayName="win10_Results_2020_05_22" ref="A1:M26" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M26" xr:uid="{60394225-A579-4CB6-9119-3144DA818A41}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBE08BD7-DE23-4B91-AF9F-1C5F57459F64}" name="win10_Results_2020_05_22" displayName="win10_Results_2020_05_22" ref="A1:N26" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N26" xr:uid="{60394225-A579-4CB6-9119-3144DA818A41}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
     <sortCondition ref="A1:A26"/>
   </sortState>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{4ED7D87F-909A-472F-B6B9-79318B4821E8}" uniqueName="1" name="program" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{531E17CB-5580-45D8-895F-A8125800C8AA}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="2"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{4ED7D87F-909A-472F-B6B9-79318B4821E8}" uniqueName="1" name="program" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{531E17CB-5580-45D8-895F-A8125800C8AA}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{13D06915-5D95-4E56-9FC4-37548D59227F}" uniqueName="3" name="import" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{35AEAAFF-6E85-4231-BEB3-7BE19B74F742}" uniqueName="4" name="rows" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{3422F10E-5EED-400C-9B9A-B931B0B2BDCF}" uniqueName="5" name="cols" queryTableFieldId="5"/>
@@ -11965,11 +11972,14 @@
     <tableColumn id="9" xr3:uid="{82E89501-3E08-48C4-99C0-087EEEFDF874}" uniqueName="9" name="chol_size" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{9A115BDA-A85A-4142-9838-5CA98F19EF4E}" uniqueName="10" name="sol_time" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{2BD6B5E7-DAF8-4A4E-9137-18930CE724B6}" uniqueName="11" name="err" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{49A419DA-A0C4-4041-A7D8-8A5783E9E5EB}" uniqueName="12" name="total_time" queryTableFieldId="12" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{49A419DA-A0C4-4041-A7D8-8A5783E9E5EB}" uniqueName="12" name="total_time" queryTableFieldId="12" dataDxfId="2">
       <calculatedColumnFormula>SUM(H2,J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{DE35251F-8278-47E7-86DC-B443AE0ABB10}" uniqueName="13" name="program_time" queryTableFieldId="13" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{DE35251F-8278-47E7-86DC-B443AE0ABB10}" uniqueName="13" name="program_time" queryTableFieldId="13" dataDxfId="1">
       <calculatedColumnFormula>SUM(L2,C2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{34A560CC-0668-4AFD-A6BD-FD77D7DA65B1}" uniqueName="14" name="mem" queryTableFieldId="14" dataDxfId="0">
+      <calculatedColumnFormula>SUM(I2,G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12273,10 +12283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CC582F-7353-43A0-9886-4AD480DFEEDD}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12293,9 +12303,10 @@
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12335,8 +12346,11 @@
       <c r="M1" t="s">
         <v>23</v>
       </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -12378,8 +12392,12 @@
         <f t="shared" ref="M2:M26" si="1">SUM(L2,C2)</f>
         <v>327</v>
       </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N26" si="2">SUM(I2,G2)</f>
+        <v>3986492</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -12421,8 +12439,12 @@
         <f t="shared" si="1"/>
         <v>4076</v>
       </c>
+      <c r="N3">
+        <f t="shared" si="2"/>
+        <v>32117016</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12464,8 +12486,12 @@
         <f t="shared" si="1"/>
         <v>121045</v>
       </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>429100628</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -12507,8 +12533,12 @@
         <f t="shared" si="1"/>
         <v>470233</v>
       </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>942407484</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -12550,8 +12580,12 @@
         <f t="shared" si="1"/>
         <v>77952</v>
       </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>481645316</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -12593,8 +12627,12 @@
         <f t="shared" si="1"/>
         <v>1633130</v>
       </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>2732435564</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -12636,8 +12674,12 @@
         <f t="shared" si="1"/>
         <v>798189</v>
       </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>2138216736</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -12679,8 +12721,12 @@
         <f t="shared" si="1"/>
         <v>524.3963</v>
       </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>5929552</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -12722,8 +12768,12 @@
         <f t="shared" si="1"/>
         <v>6414.8947000000007</v>
       </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>376068368</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -12765,8 +12815,12 @@
         <f t="shared" si="1"/>
         <v>12885.950800000001</v>
       </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>1299078704</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -12808,8 +12862,12 @@
         <f t="shared" si="1"/>
         <v>22381.745800000001</v>
       </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>2550527376</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -12851,8 +12909,12 @@
         <f t="shared" si="1"/>
         <v>125.1</v>
       </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>4657280</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -12894,8 +12956,12 @@
         <f t="shared" si="1"/>
         <v>2078.125</v>
       </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>44054496</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -12937,8 +13003,12 @@
         <f t="shared" si="1"/>
         <v>82921.875</v>
       </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>489997004</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -12980,8 +13050,12 @@
         <f t="shared" si="1"/>
         <v>250281.25</v>
       </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>958853076</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -13023,8 +13097,12 @@
         <f t="shared" si="1"/>
         <v>37281.25</v>
       </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>551851412</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -13066,8 +13144,12 @@
         <f t="shared" si="1"/>
         <v>517640.625</v>
       </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>2365138904</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -13109,8 +13191,12 @@
         <f t="shared" si="1"/>
         <v>554734.375</v>
       </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>2655186540</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -13152,8 +13238,12 @@
         <f t="shared" si="1"/>
         <v>182.52587318420444</v>
       </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>3341936</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -13195,8 +13285,12 @@
         <f t="shared" si="1"/>
         <v>16131.175994873047</v>
       </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>31344240</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -13238,8 +13332,12 @@
         <f t="shared" si="1"/>
         <v>19048.884153366049</v>
       </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>294461872</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -13281,8 +13379,12 @@
         <f t="shared" si="1"/>
         <v>55604.39991950996</v>
       </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>568534792</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -13324,8 +13426,12 @@
         <f t="shared" si="1"/>
         <v>676598.10090064979</v>
       </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>381853616</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -13367,8 +13473,12 @@
         <f t="shared" si="1"/>
         <v>1386629.3489933026</v>
       </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>1699704128</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -13409,6 +13519,10 @@
       <c r="M26">
         <f t="shared" si="1"/>
         <v>8288398.8440036774</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>1852595208</v>
       </c>
     </row>
   </sheetData>

--- a/final results/windows10 final results.xlsx
+++ b/final results/windows10 final results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strav\git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43CF830-7C27-47A4-9902-4E6251BBA33B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12CEB35-BC1B-40B3-8AF5-9DF78D84E4FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{581DAB66-4A87-4E86-82A4-274A5B9AFBE6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{581DAB66-4A87-4E86-82A4-274A5B9AFBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="2" r:id="rId1"/>
@@ -5213,7 +5213,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Chol</a:t>
+              <a:t>Tempo decomposizione Cholesky</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
@@ -12285,28 +12285,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CC582F-7353-43A0-9886-4AD480DFEEDD}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.46484375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="15.796875" customWidth="1"/>
+    <col min="14" max="14" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>3986492</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>32117016</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>429100628</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>942407484</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>481645316</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>2732435564</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>2138216736</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>5929552</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>376068368</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>1299078704</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>2550527376</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>4657280</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>44054496</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>489997004</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>958853076</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>551851412</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>2365138904</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>2655186540</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>3341936</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>31344240</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>294461872</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>568534792</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>381853616</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>1699704128</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>

--- a/final results/windows10 final results.xlsx
+++ b/final results/windows10 final results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strav\git\cholesky-computing\final results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12CEB35-BC1B-40B3-8AF5-9DF78D84E4FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2CF21A-D583-47D7-A419-FE5E46072C5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{581DAB66-4A87-4E86-82A4-274A5B9AFBE6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{581DAB66-4A87-4E86-82A4-274A5B9AFBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="2" r:id="rId1"/>
@@ -5999,7 +5999,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" u="none"/>
-              <a:t>Err - Windows</a:t>
+              <a:t>Errore - Windows</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12285,28 +12285,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CC582F-7353-43A0-9886-4AD480DFEEDD}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="W85" sqref="W85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="15.796875" customWidth="1"/>
-    <col min="14" max="14" width="18.1328125" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>3986492</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>32117016</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>429100628</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>942407484</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>481645316</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>2732435564</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>2138216736</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>5929552</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>376068368</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>1299078704</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>2550527376</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>4657280</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>44054496</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>489997004</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>958853076</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>551851412</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>2365138904</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>2655186540</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>3341936</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>31344240</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>294461872</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>568534792</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>381853616</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>1699704128</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>

--- a/final results/windows10 final results.xlsx
+++ b/final results/windows10 final results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2CF21A-D583-47D7-A419-FE5E46072C5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47041FC-A503-48A3-97E9-E890354E68CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{581DAB66-4A87-4E86-82A4-274A5B9AFBE6}"/>
   </bookViews>
@@ -5998,7 +5998,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" u="none"/>
+              <a:rPr lang="it-IT"/>
               <a:t>Errore - Windows</a:t>
             </a:r>
           </a:p>
@@ -6283,26 +6283,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio2!$K$14:$K$19</c:f>
+              <c:f>Foglio2!$K$13:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>7.4667418258630438E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.3236586965543559E-16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.0231649104184821E-13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.8706089987178975E-13</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9.5191634474851015E-13</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.5154492128590896E-11</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.8515524773529713E-12</c:v>
                 </c:pt>
               </c:numCache>
@@ -6729,7 +6732,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr u="sng"/>
+        <a:defRPr u="none"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -12285,7 +12288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CC582F-7353-43A0-9886-4AD480DFEEDD}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
       <selection activeCell="W85" sqref="W85"/>
     </sheetView>
   </sheetViews>

--- a/final results/windows10 final results.xlsx
+++ b/final results/windows10 final results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\cholesky-computing\final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47041FC-A503-48A3-97E9-E890354E68CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068B7C80-CC6F-43D0-A342-9C91E92AF4FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{581DAB66-4A87-4E86-82A4-274A5B9AFBE6}"/>
   </bookViews>
@@ -11718,15 +11718,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>624840</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12288,7 +12288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CC582F-7353-43A0-9886-4AD480DFEEDD}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W85" sqref="W85"/>
     </sheetView>
   </sheetViews>
